--- a/N_lim/output/phe_sub.xlsx
+++ b/N_lim/output/phe_sub.xlsx
@@ -14,29 +14,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="293">
   <si>
     <t>subsystem</t>
   </si>
   <si>
-    <t>r_0003</t>
-  </si>
-  <si>
-    <t>r_0004</t>
-  </si>
-  <si>
-    <t>r_0012</t>
+    <t>r_0005</t>
+  </si>
+  <si>
+    <t>r_0006</t>
   </si>
   <si>
     <t>r_0013</t>
   </si>
   <si>
+    <t>r_0014</t>
+  </si>
+  <si>
+    <t>r_0015</t>
+  </si>
+  <si>
     <t>r_0016</t>
   </si>
   <si>
     <t>r_0019</t>
   </si>
   <si>
+    <t>r_0020</t>
+  </si>
+  <si>
     <t>r_0025</t>
   </si>
   <si>
@@ -46,15 +52,36 @@
     <t>r_0032</t>
   </si>
   <si>
+    <t>r_0038</t>
+  </si>
+  <si>
+    <t>r_0039</t>
+  </si>
+  <si>
+    <t>r_0040</t>
+  </si>
+  <si>
     <t>r_0045</t>
   </si>
   <si>
     <t>r_0058</t>
   </si>
   <si>
+    <t>r_0061</t>
+  </si>
+  <si>
     <t>r_0063</t>
   </si>
   <si>
+    <t>r_0065</t>
+  </si>
+  <si>
+    <t>r_0066</t>
+  </si>
+  <si>
+    <t>r_0067</t>
+  </si>
+  <si>
     <t>r_0068</t>
   </si>
   <si>
@@ -64,6 +91,9 @@
     <t>r_0080</t>
   </si>
   <si>
+    <t>r_0081</t>
+  </si>
+  <si>
     <t>r_0086</t>
   </si>
   <si>
@@ -82,12 +112,15 @@
     <t>r_0115</t>
   </si>
   <si>
-    <t>r_0117</t>
-  </si>
-  <si>
     <t>r_0118</t>
   </si>
   <si>
+    <t>r_0142</t>
+  </si>
+  <si>
+    <t>r_0144</t>
+  </si>
+  <si>
     <t>r_0145</t>
   </si>
   <si>
@@ -106,13 +139,10 @@
     <t>r_0157</t>
   </si>
   <si>
-    <t>r_0163</t>
-  </si>
-  <si>
     <t>r_0169</t>
   </si>
   <si>
-    <t>r_0188</t>
+    <t>r_0195</t>
   </si>
   <si>
     <t>r_0202</t>
@@ -136,12 +166,6 @@
     <t>r_0215</t>
   </si>
   <si>
-    <t>r_0216</t>
-  </si>
-  <si>
-    <t>r_0217</t>
-  </si>
-  <si>
     <t>r_0219</t>
   </si>
   <si>
@@ -151,64 +175,106 @@
     <t>r_0225</t>
   </si>
   <si>
+    <t>r_0227</t>
+  </si>
+  <si>
+    <t>r_0231</t>
+  </si>
+  <si>
     <t>r_0233</t>
   </si>
   <si>
+    <t>r_0234</t>
+  </si>
+  <si>
+    <t>r_0235</t>
+  </si>
+  <si>
+    <t>r_0236</t>
+  </si>
+  <si>
+    <t>r_0237</t>
+  </si>
+  <si>
+    <t>r_0238</t>
+  </si>
+  <si>
+    <t>r_0239</t>
+  </si>
+  <si>
+    <t>r_0240</t>
+  </si>
+  <si>
+    <t>r_0241</t>
+  </si>
+  <si>
     <t>r_0242</t>
   </si>
   <si>
+    <t>r_0244</t>
+  </si>
+  <si>
     <t>r_0250</t>
   </si>
   <si>
-    <t>r_0273</t>
-  </si>
-  <si>
-    <t>r_0274</t>
+    <t>r_0278</t>
+  </si>
+  <si>
+    <t>r_0279</t>
   </si>
   <si>
     <t>r_0303</t>
   </si>
   <si>
-    <t>r_0310</t>
-  </si>
-  <si>
-    <t>r_0311</t>
-  </si>
-  <si>
-    <t>r_0312</t>
+    <t>r_0304</t>
+  </si>
+  <si>
+    <t>r_0317</t>
+  </si>
+  <si>
+    <t>r_0346</t>
+  </si>
+  <si>
+    <t>r_0347</t>
+  </si>
+  <si>
+    <t>r_0348</t>
   </si>
   <si>
     <t>r_0349</t>
   </si>
   <si>
+    <t>r_0350</t>
+  </si>
+  <si>
     <t>r_0352</t>
   </si>
   <si>
     <t>r_0353</t>
   </si>
   <si>
-    <t>r_0364</t>
-  </si>
-  <si>
-    <t>r_0369</t>
-  </si>
-  <si>
-    <t>r_0412</t>
-  </si>
-  <si>
-    <t>r_0446</t>
+    <t>r_0355</t>
+  </si>
+  <si>
+    <t>r_0361</t>
+  </si>
+  <si>
+    <t>r_0362</t>
+  </si>
+  <si>
+    <t>r_0436</t>
+  </si>
+  <si>
+    <t>r_0440</t>
   </si>
   <si>
     <t>r_0450</t>
   </si>
   <si>
-    <t>r_0451</t>
-  </si>
-  <si>
     <t>r_0452</t>
   </si>
   <si>
-    <t>r_0455</t>
+    <t>r_0462</t>
   </si>
   <si>
     <t>r_0466</t>
@@ -220,7 +286,7 @@
     <t>r_0468</t>
   </si>
   <si>
-    <t>r_0469</t>
+    <t>r_0470</t>
   </si>
   <si>
     <t>r_0473</t>
@@ -235,21 +301,36 @@
     <t>r_0479</t>
   </si>
   <si>
-    <t>r_0497</t>
+    <t>r_0481</t>
+  </si>
+  <si>
+    <t>r_0491</t>
+  </si>
+  <si>
+    <t>r_0502</t>
   </si>
   <si>
     <t>r_0503</t>
   </si>
   <si>
-    <t>r_0505</t>
+    <t>r_0510</t>
   </si>
   <si>
     <t>r_0512</t>
   </si>
   <si>
+    <t>r_0524</t>
+  </si>
+  <si>
+    <t>r_0525</t>
+  </si>
+  <si>
     <t>r_0528</t>
   </si>
   <si>
+    <t>r_0530</t>
+  </si>
+  <si>
     <t>r_0536</t>
   </si>
   <si>
@@ -268,7 +349,7 @@
     <t>r_0545</t>
   </si>
   <si>
-    <t>r_0547</t>
+    <t>r_0546</t>
   </si>
   <si>
     <t>r_0548</t>
@@ -277,7 +358,7 @@
     <t>r_0549</t>
   </si>
   <si>
-    <t>r_0552</t>
+    <t>r_0558</t>
   </si>
   <si>
     <t>r_0560</t>
@@ -292,55 +373,40 @@
     <t>r_0566</t>
   </si>
   <si>
-    <t>r_0568</t>
-  </si>
-  <si>
     <t>r_0569</t>
   </si>
   <si>
     <t>r_0570</t>
   </si>
   <si>
-    <t>r_0647</t>
-  </si>
-  <si>
     <t>r_0659</t>
   </si>
   <si>
     <t>r_0665</t>
   </si>
   <si>
+    <t>r_0667</t>
+  </si>
+  <si>
     <t>r_0669</t>
   </si>
   <si>
     <t>r_0671</t>
   </si>
   <si>
-    <t>r_0688</t>
-  </si>
-  <si>
-    <t>r_0693</t>
-  </si>
-  <si>
     <t>r_0694</t>
   </si>
   <si>
-    <t>r_0696</t>
+    <t>r_0698</t>
   </si>
   <si>
     <t>r_0701</t>
   </si>
   <si>
-    <t>r_0713</t>
-  </si>
-  <si>
-    <t>r_0714</t>
-  </si>
-  <si>
-    <t>r_0717</t>
-  </si>
-  <si>
-    <t>r_0719</t>
+    <t>r_0722</t>
+  </si>
+  <si>
+    <t>r_0725</t>
   </si>
   <si>
     <t>r_0726</t>
@@ -352,27 +418,33 @@
     <t>r_0729</t>
   </si>
   <si>
-    <t>r_0734</t>
+    <t>r_0732</t>
+  </si>
+  <si>
+    <t>r_0735</t>
+  </si>
+  <si>
+    <t>r_0739</t>
   </si>
   <si>
     <t>r_0757</t>
   </si>
   <si>
+    <t>r_0758</t>
+  </si>
+  <si>
     <t>r_0759</t>
   </si>
   <si>
     <t>r_0762</t>
   </si>
   <si>
-    <t>r_0765</t>
-  </si>
-  <si>
-    <t>r_0766</t>
-  </si>
-  <si>
     <t>r_0768</t>
   </si>
   <si>
+    <t>r_0771</t>
+  </si>
+  <si>
     <t>r_0786</t>
   </si>
   <si>
@@ -382,6 +454,9 @@
     <t>r_0800</t>
   </si>
   <si>
+    <t>r_0813</t>
+  </si>
+  <si>
     <t>r_0816</t>
   </si>
   <si>
@@ -391,12 +466,6 @@
     <t>r_0820</t>
   </si>
   <si>
-    <t>r_0831</t>
-  </si>
-  <si>
-    <t>r_0832</t>
-  </si>
-  <si>
     <t>r_0841</t>
   </si>
   <si>
@@ -412,12 +481,21 @@
     <t>r_0886</t>
   </si>
   <si>
+    <t>r_0887</t>
+  </si>
+  <si>
+    <t>r_0888</t>
+  </si>
+  <si>
+    <t>r_0892</t>
+  </si>
+  <si>
+    <t>r_0904</t>
+  </si>
+  <si>
     <t>r_0905</t>
   </si>
   <si>
-    <t>r_0906</t>
-  </si>
-  <si>
     <t>r_0909</t>
   </si>
   <si>
@@ -430,31 +508,40 @@
     <t>r_0916</t>
   </si>
   <si>
+    <t>r_0917</t>
+  </si>
+  <si>
+    <t>r_0918</t>
+  </si>
+  <si>
+    <t>r_0935</t>
+  </si>
+  <si>
     <t>r_0937</t>
   </si>
   <si>
     <t>r_0939</t>
   </si>
   <si>
-    <t>r_0940</t>
+    <t>r_0942</t>
+  </si>
+  <si>
+    <t>r_0956</t>
   </si>
   <si>
     <t>r_0957</t>
   </si>
   <si>
-    <t>r_0961</t>
-  </si>
-  <si>
-    <t>r_0966</t>
-  </si>
-  <si>
-    <t>r_0970</t>
-  </si>
-  <si>
-    <t>r_0972</t>
-  </si>
-  <si>
-    <t>r_0973</t>
+    <t>r_0958</t>
+  </si>
+  <si>
+    <t>r_0962</t>
+  </si>
+  <si>
+    <t>r_0967</t>
+  </si>
+  <si>
+    <t>r_0968</t>
   </si>
   <si>
     <t>r_0984</t>
@@ -469,13 +556,22 @@
     <t>r_0989</t>
   </si>
   <si>
-    <t>r_0992</t>
+    <t>r_0990</t>
   </si>
   <si>
     <t>r_0995</t>
   </si>
   <si>
-    <t>r_1021</t>
+    <t>r_0996</t>
+  </si>
+  <si>
+    <t>r_0997</t>
+  </si>
+  <si>
+    <t>r_1011</t>
+  </si>
+  <si>
+    <t>r_1012</t>
   </si>
   <si>
     <t>r_1023</t>
@@ -487,9 +583,6 @@
     <t>r_1027</t>
   </si>
   <si>
-    <t>r_1034</t>
-  </si>
-  <si>
     <t>r_1038</t>
   </si>
   <si>
@@ -499,349 +592,307 @@
     <t>r_1042</t>
   </si>
   <si>
+    <t>r_1045</t>
+  </si>
+  <si>
+    <t>r_1051</t>
+  </si>
+  <si>
+    <t>r_1054</t>
+  </si>
+  <si>
     <t>r_1055</t>
   </si>
   <si>
     <t>r_1057</t>
   </si>
   <si>
+    <t>r_1063</t>
+  </si>
+  <si>
     <t>r_1066</t>
   </si>
   <si>
+    <t>r_1081</t>
+  </si>
+  <si>
+    <t>r_1083</t>
+  </si>
+  <si>
     <t>r_1089</t>
   </si>
   <si>
+    <t>r_1099</t>
+  </si>
+  <si>
+    <t>r_1129</t>
+  </si>
+  <si>
+    <t>r_1194</t>
+  </si>
+  <si>
+    <t>r_1237</t>
+  </si>
+  <si>
+    <t>r_1245</t>
+  </si>
+  <si>
+    <t>r_1667</t>
+  </si>
+  <si>
+    <t>r_1703</t>
+  </si>
+  <si>
+    <t>r_1736</t>
+  </si>
+  <si>
     <t>r_1838</t>
   </si>
   <si>
+    <t>r_2115</t>
+  </si>
+  <si>
     <t>r_2131</t>
   </si>
   <si>
+    <t>r_2132</t>
+  </si>
+  <si>
+    <t>r_2140</t>
+  </si>
+  <si>
     <t>r_2141</t>
   </si>
   <si>
-    <t>r_2154</t>
-  </si>
-  <si>
-    <t>r_2155</t>
-  </si>
-  <si>
-    <t>r_2161</t>
-  </si>
-  <si>
-    <t>r_2162</t>
-  </si>
-  <si>
-    <t>r_2168</t>
-  </si>
-  <si>
-    <t>r_2169</t>
-  </si>
-  <si>
-    <t>r_2175</t>
-  </si>
-  <si>
-    <t>r_2176</t>
-  </si>
-  <si>
-    <t>r_2196</t>
-  </si>
-  <si>
-    <t>r_2197</t>
-  </si>
-  <si>
-    <t>r_2200</t>
-  </si>
-  <si>
-    <t>r_2205</t>
+    <t>r_2182</t>
+  </si>
+  <si>
+    <t>r_2183</t>
   </si>
   <si>
     <t>r_2305</t>
   </si>
   <si>
-    <t>r_2313</t>
-  </si>
-  <si>
-    <t>r_2314</t>
-  </si>
-  <si>
-    <t>r_2316</t>
-  </si>
-  <si>
-    <t>r_2320</t>
-  </si>
-  <si>
-    <t>r_2325</t>
-  </si>
-  <si>
-    <t>r_2326</t>
-  </si>
-  <si>
-    <t>r_2328</t>
+    <t>r_2308</t>
+  </si>
+  <si>
+    <t>r_2309</t>
+  </si>
+  <si>
+    <t>r_2310</t>
+  </si>
+  <si>
+    <t>r_2333</t>
   </si>
   <si>
     <t>r_2334</t>
   </si>
   <si>
+    <t>r_2336</t>
+  </si>
+  <si>
+    <t>r_2346</t>
+  </si>
+  <si>
     <t>r_2433</t>
   </si>
   <si>
+    <t>r_2434</t>
+  </si>
+  <si>
     <t>r_2436</t>
   </si>
   <si>
-    <t>r_2438</t>
-  </si>
-  <si>
     <t>r_2447</t>
   </si>
   <si>
-    <t>r_2452</t>
-  </si>
-  <si>
-    <t>r_2454</t>
-  </si>
-  <si>
-    <t>r_2458</t>
-  </si>
-  <si>
-    <t>r_2465</t>
-  </si>
-  <si>
-    <t>r_2470</t>
-  </si>
-  <si>
-    <t>r_2493</t>
-  </si>
-  <si>
-    <t>r_2494</t>
-  </si>
-  <si>
-    <t>r_2501</t>
-  </si>
-  <si>
-    <t>r_2502</t>
-  </si>
-  <si>
-    <t>r_2509</t>
-  </si>
-  <si>
-    <t>r_2510</t>
-  </si>
-  <si>
-    <t>r_2532</t>
-  </si>
-  <si>
-    <t>r_2821</t>
-  </si>
-  <si>
-    <t>r_2872</t>
-  </si>
-  <si>
-    <t>r_2878</t>
-  </si>
-  <si>
-    <t>r_3104</t>
-  </si>
-  <si>
-    <t>r_3110</t>
-  </si>
-  <si>
-    <t>r_3114</t>
-  </si>
-  <si>
-    <t>r_3153</t>
-  </si>
-  <si>
-    <t>r_3178</t>
-  </si>
-  <si>
-    <t>r_3212</t>
-  </si>
-  <si>
-    <t>r_4039</t>
-  </si>
-  <si>
-    <t>r_1099</t>
-  </si>
-  <si>
-    <t>r_1118</t>
-  </si>
-  <si>
-    <t>r_1127</t>
-  </si>
-  <si>
-    <t>r_1194</t>
-  </si>
-  <si>
-    <t>r_1230</t>
-  </si>
-  <si>
-    <t>r_1231</t>
-  </si>
-  <si>
-    <t>r_1237</t>
-  </si>
-  <si>
-    <t>r_1245</t>
-  </si>
-  <si>
-    <t>r_1254</t>
-  </si>
-  <si>
-    <t>r_2132</t>
-  </si>
-  <si>
-    <t>r_2221</t>
-  </si>
-  <si>
-    <t>r_1667</t>
-  </si>
-  <si>
-    <t>r_1729</t>
-  </si>
-  <si>
-    <t>r_1772</t>
-  </si>
-  <si>
-    <t>r_1790</t>
-  </si>
-  <si>
-    <t>r_3545</t>
+    <t>r_2448</t>
+  </si>
+  <si>
+    <t>r_2450</t>
+  </si>
+  <si>
+    <t>r_2455</t>
+  </si>
+  <si>
+    <t>r_2468</t>
+  </si>
+  <si>
+    <t>r_2473</t>
+  </si>
+  <si>
+    <t>r_2482</t>
+  </si>
+  <si>
+    <t>r_2489</t>
+  </si>
+  <si>
+    <t>r_2492</t>
+  </si>
+  <si>
+    <t>r_2497</t>
+  </si>
+  <si>
+    <t>r_2500</t>
+  </si>
+  <si>
+    <t>r_2505</t>
+  </si>
+  <si>
+    <t>r_2508</t>
+  </si>
+  <si>
+    <t>r_3814</t>
+  </si>
+  <si>
+    <t>r_3822</t>
+  </si>
+  <si>
+    <t>r_4196</t>
   </si>
   <si>
     <t>r_4226</t>
   </si>
   <si>
-    <t>r_4262</t>
-  </si>
-  <si>
-    <t>r_4266</t>
-  </si>
-  <si>
-    <t>Butanoate metabolism</t>
+    <t>r_4333</t>
+  </si>
+  <si>
+    <t>r_4587</t>
+  </si>
+  <si>
+    <t>r_4589</t>
+  </si>
+  <si>
+    <t>r_4591</t>
+  </si>
+  <si>
+    <t>Starch and sucrose metabolism</t>
+  </si>
+  <si>
+    <t>Cysteine and methionine metabolism</t>
+  </si>
+  <si>
+    <t>Riboflavin metabolism</t>
+  </si>
+  <si>
+    <t>Valine, leucine and isoleucine metabolism</t>
+  </si>
+  <si>
+    <t>Pantothenate and coa biosynthesis</t>
+  </si>
+  <si>
+    <t>Phenylalanine, tyrosine and tryptophan biosynthesis</t>
+  </si>
+  <si>
+    <t>Lysine metabolism</t>
+  </si>
+  <si>
+    <t>Sulfur metabolism</t>
+  </si>
+  <si>
+    <t>Tryptophan metabolism</t>
+  </si>
+  <si>
+    <t>Folate biosynthesis</t>
+  </si>
+  <si>
+    <t>Alanine, aspartate and glutamate metabolism</t>
+  </si>
+  <si>
+    <t>One carbon pool by folate</t>
+  </si>
+  <si>
+    <t>Porphyrin and chlorophyll metabolism</t>
+  </si>
+  <si>
+    <t>Fatty acid degradation</t>
+  </si>
+  <si>
+    <t>Arginine biosynthesis</t>
+  </si>
+  <si>
+    <t>Purine metabolism</t>
+  </si>
+  <si>
+    <t>Arginine and proline metabolism</t>
+  </si>
+  <si>
+    <t>tRNA metabolism</t>
+  </si>
+  <si>
+    <t>Phenylalanine metabolism</t>
+  </si>
+  <si>
+    <t>Glycine, serine and threonine metabolism</t>
+  </si>
+  <si>
+    <t>Histidine metabolism</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Steroid biosynthesis</t>
+  </si>
+  <si>
+    <t>Pyrimidine metabolism</t>
+  </si>
+  <si>
+    <t>Citrate cycle (TCA cycle)</t>
+  </si>
+  <si>
+    <t>Terpenoid backbone biosynthesis</t>
+  </si>
+  <si>
+    <t>N-glycan biosynthesis</t>
+  </si>
+  <si>
+    <t>Glycolysis / gluconeogenesis</t>
+  </si>
+  <si>
+    <t>Pentose phosphate pathway</t>
+  </si>
+  <si>
+    <t>Glutathione metabolism</t>
+  </si>
+  <si>
+    <t>Glycerophospholipid metabolism</t>
+  </si>
+  <si>
+    <t>Oxidative phosphorylation</t>
+  </si>
+  <si>
+    <t>Fructose and mannose metabolism</t>
+  </si>
+  <si>
+    <t>Inositol phosphate metabolism</t>
+  </si>
+  <si>
+    <t>Nicotinate and nicotinamide metabolism</t>
+  </si>
+  <si>
+    <t>Vitamin b6 metabolism</t>
   </si>
   <si>
     <t>Pyruvate metabolism</t>
   </si>
   <si>
-    <t>Alanine, aspartate and glutamate metabolism</t>
-  </si>
-  <si>
-    <t>Cysteine and methionine metabolism</t>
-  </si>
-  <si>
-    <t>Valine, leucine and isoleucine metabolism</t>
-  </si>
-  <si>
-    <t>Pantothenate and coa biosynthesis</t>
-  </si>
-  <si>
-    <t>Lysine metabolism</t>
-  </si>
-  <si>
-    <t>Sulfur metabolism</t>
-  </si>
-  <si>
-    <t>Tryptophan metabolism</t>
-  </si>
-  <si>
-    <t>One carbon pool by folate</t>
-  </si>
-  <si>
-    <t>Fatty acid degradation</t>
-  </si>
-  <si>
-    <t>Arginine biosynthesis</t>
-  </si>
-  <si>
-    <t>Propanoate metabolism</t>
-  </si>
-  <si>
-    <t>Arginine and proline metabolism</t>
-  </si>
-  <si>
-    <t>Purine metabolism</t>
-  </si>
-  <si>
-    <t>tRNA metabolism</t>
-  </si>
-  <si>
-    <t>Glycolysis / gluconeogenesis</t>
-  </si>
-  <si>
-    <t>Phenylalanine metabolism</t>
-  </si>
-  <si>
-    <t>Folate biosynthesis</t>
-  </si>
-  <si>
-    <t>Phenylalanine, tyrosine and tryptophan biosynthesis</t>
-  </si>
-  <si>
-    <t>Glycine, serine and threonine metabolism</t>
-  </si>
-  <si>
-    <t>Histidine metabolism</t>
-  </si>
-  <si>
-    <t>Steroid biosynthesis</t>
-  </si>
-  <si>
-    <t>Pyrimidine metabolism</t>
-  </si>
-  <si>
-    <t>Glycerophospholipid metabolism</t>
-  </si>
-  <si>
-    <t>Citrate cycle (TCA cycle)</t>
-  </si>
-  <si>
-    <t>Complex alcohol metabolism</t>
+    <t>Tyrosine metabolism</t>
+  </si>
+  <si>
+    <t>Nitrogen metabolism</t>
   </si>
   <si>
     <t>Fatty acid biosynthesis</t>
   </si>
   <si>
-    <t>Cellular response to anaerobic conditions</t>
-  </si>
-  <si>
-    <t>Pentose phosphate pathway</t>
-  </si>
-  <si>
-    <t>Glutathione metabolism</t>
-  </si>
-  <si>
-    <t>Terpenoid backbone biosynthesis</t>
-  </si>
-  <si>
-    <t>Oxidative phosphorylation</t>
-  </si>
-  <si>
-    <t>Sphingolipid metabolism</t>
-  </si>
-  <si>
-    <t>Inositol phosphate metabolism</t>
-  </si>
-  <si>
-    <t>Nicotinate and nicotinamide metabolism</t>
-  </si>
-  <si>
-    <t>Riboflavin metabolism</t>
-  </si>
-  <si>
-    <t>Thiamine metabolism</t>
-  </si>
-  <si>
     <t>Biosynthesis of unsaturated fatty acids</t>
   </si>
   <si>
     <t>Glycerolipid metabolism</t>
   </si>
   <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>Nitrogen metabolism</t>
+    <t>Amino sugar and nucleotide sugar metabolism</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1250,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B234"/>
+  <dimension ref="A1:B250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1215,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1223,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1231,7 +1282,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1239,7 +1290,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1247,7 +1298,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1255,7 +1306,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1263,7 +1314,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1271,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1279,7 +1330,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1287,7 +1338,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1295,7 +1346,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1303,7 +1354,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1311,7 +1362,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1319,7 +1370,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1327,7 +1378,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1335,7 +1386,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1343,7 +1394,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1351,7 +1402,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1359,7 +1410,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1367,7 +1418,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1375,7 +1426,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1383,7 +1434,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1391,7 +1442,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1399,7 +1450,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1407,7 +1458,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1415,7 +1466,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1423,7 +1474,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1431,7 +1482,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1439,7 +1490,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1447,7 +1498,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1455,7 +1506,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1463,7 +1514,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1471,7 +1522,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1479,7 +1530,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1487,7 +1538,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1495,7 +1546,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1503,7 +1554,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1511,7 +1562,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1519,7 +1570,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1527,7 +1578,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1535,7 +1586,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1543,7 +1594,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1551,7 +1602,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1567,7 +1618,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1575,7 +1626,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1583,7 +1634,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1591,7 +1642,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1599,7 +1650,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1607,7 +1658,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1615,7 +1666,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1623,7 +1674,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1631,7 +1682,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1639,7 +1690,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1647,7 +1698,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1655,7 +1706,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1663,7 +1714,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1671,7 +1722,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1679,7 +1730,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1687,7 +1738,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1695,7 +1746,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1703,7 +1754,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1711,7 +1762,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1719,7 +1770,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1727,7 +1778,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1735,7 +1786,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1743,7 +1794,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1751,7 +1802,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1759,7 +1810,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1767,7 +1818,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1775,7 +1826,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1783,7 +1834,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1791,7 +1842,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1799,7 +1850,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1807,7 +1858,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1815,7 +1866,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1823,7 +1874,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1831,7 +1882,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1839,7 +1890,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1847,7 +1898,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1855,7 +1906,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1863,7 +1914,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1871,7 +1922,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1879,7 +1930,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1887,7 +1938,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1895,7 +1946,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1903,7 +1954,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1911,7 +1962,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1919,7 +1970,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1927,7 +1978,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1935,7 +1986,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1943,7 +1994,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1951,7 +2002,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1959,7 +2010,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1967,7 +2018,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1975,7 +2026,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1983,7 +2034,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1991,7 +2042,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1999,7 +2050,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2007,7 +2058,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2015,7 +2066,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2023,7 +2074,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2031,7 +2082,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2039,7 +2090,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2047,7 +2098,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2055,7 +2106,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2063,7 +2114,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2071,7 +2122,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2079,7 +2130,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2087,7 +2138,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2095,7 +2146,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2103,7 +2154,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2111,7 +2162,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2119,7 +2170,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2127,7 +2178,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2135,7 +2186,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2143,7 +2194,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2151,7 +2202,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2159,7 +2210,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2167,7 +2218,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2175,7 +2226,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2183,7 +2234,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2191,7 +2242,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2199,7 +2250,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2207,7 +2258,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2215,7 +2266,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2223,7 +2274,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2231,7 +2282,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2239,7 +2290,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2247,7 +2298,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2255,7 +2306,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2263,7 +2314,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2271,7 +2322,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2279,7 +2330,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2287,7 +2338,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2295,7 +2346,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2303,7 +2354,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2311,7 +2362,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2319,7 +2370,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2327,7 +2378,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2335,7 +2386,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2343,7 +2394,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2351,7 +2402,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2359,7 +2410,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2367,7 +2418,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2375,7 +2426,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2383,7 +2434,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2391,7 +2442,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2399,7 +2450,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2407,7 +2458,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2415,7 +2466,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2423,7 +2474,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2431,7 +2482,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2439,7 +2490,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2447,7 +2498,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2455,7 +2506,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2463,7 +2514,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2471,7 +2522,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2487,7 +2538,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2495,7 +2546,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2503,7 +2554,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2511,7 +2562,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2519,7 +2570,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2527,7 +2578,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2535,7 +2586,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2543,7 +2594,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2551,7 +2602,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2559,7 +2610,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2567,7 +2618,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2575,7 +2626,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2583,7 +2634,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2591,7 +2642,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2599,7 +2650,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2607,7 +2658,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2615,7 +2666,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2623,7 +2674,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2631,7 +2682,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2639,7 +2690,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2647,7 +2698,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2655,7 +2706,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2663,7 +2714,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2671,7 +2722,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2679,7 +2730,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2687,7 +2738,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2695,7 +2746,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2703,7 +2754,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2711,7 +2762,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2719,7 +2770,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2727,7 +2778,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2735,7 +2786,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2743,7 +2794,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2751,7 +2802,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2759,7 +2810,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2767,7 +2818,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2775,7 +2826,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2783,7 +2834,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2791,7 +2842,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2799,7 +2850,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2807,7 +2858,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2815,7 +2866,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2823,7 +2874,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2831,7 +2882,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2839,7 +2890,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2847,7 +2898,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2855,7 +2906,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2863,7 +2914,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2871,7 +2922,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2879,7 +2930,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2887,7 +2938,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2895,7 +2946,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2903,7 +2954,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2911,7 +2962,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2919,7 +2970,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2927,7 +2978,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2935,7 +2986,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2943,7 +2994,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2959,7 +3010,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2967,7 +3018,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2975,7 +3026,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2983,7 +3034,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2991,7 +3042,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2999,7 +3050,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3007,7 +3058,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3015,7 +3066,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3023,7 +3074,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3031,7 +3082,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3039,7 +3090,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3047,7 +3098,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3055,7 +3106,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>236</v>
+        <v>280</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3063,7 +3114,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3071,7 +3122,135 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1" t="s">
         <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
